--- a/Section02/StrDEM/StrDEM.xlsx
+++ b/Section02/StrDEM/StrDEM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R.LTWB\Section02\StrDEM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB659EF5-321A-4206-9E64-716546974FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{131075A8-F021-4B93-9DF4-317E4A14F03D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{03B55DA4-6B51-4AED-8FA8-1B5F13EEC1E3}"/>
   </bookViews>
@@ -80,9 +80,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-  </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -298,7 +295,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -345,10 +342,20 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -370,21 +377,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -723,7 +717,7 @@
                 <c:pt idx="8">
                   <c:v>31</c:v>
                 </c:pt>
-                <c:pt idx="9" formatCode="0.0">
+                <c:pt idx="9" formatCode="0">
                   <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
@@ -2128,7 +2122,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2153,13 +2147,13 @@
       <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
     </row>
@@ -2186,17 +2180,17 @@
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="21">
         <v>1000</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4" s="20">
         <v>0.25</v>
       </c>
       <c r="D4" s="9">
         <f>ROUND($B$4/C4,0)</f>
         <v>4000</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="23">
         <v>30.684645849999999</v>
       </c>
       <c r="F4" s="14">
@@ -2205,37 +2199,37 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="18"/>
-      <c r="C5" s="27">
+      <c r="B5" s="21"/>
+      <c r="C5" s="20">
         <v>0.5</v>
       </c>
       <c r="D5" s="9">
         <f t="shared" ref="D5:D12" si="0">ROUND($B$4/C5,0)</f>
         <v>2000</v>
       </c>
-      <c r="E5" s="20"/>
+      <c r="E5" s="23"/>
       <c r="F5" s="14">
-        <f t="shared" ref="F5:F12" si="1">ROUND((C5*1000000)/($E$4*$E$4),0)</f>
+        <f t="shared" ref="F5:F11" si="1">ROUND((C5*1000000)/($E$4*$E$4),0)</f>
         <v>531</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="18"/>
-      <c r="C6" s="27">
+      <c r="B6" s="21"/>
+      <c r="C6" s="20">
         <v>0.75</v>
       </c>
       <c r="D6" s="9">
         <f t="shared" si="0"/>
         <v>1333</v>
       </c>
-      <c r="E6" s="20"/>
+      <c r="E6" s="23"/>
       <c r="F6" s="14">
         <f t="shared" si="1"/>
         <v>797</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="18"/>
+      <c r="B7" s="21"/>
       <c r="C7" s="8">
         <v>1</v>
       </c>
@@ -2243,14 +2237,14 @@
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-      <c r="E7" s="20"/>
+      <c r="E7" s="23"/>
       <c r="F7" s="14">
         <f t="shared" si="1"/>
         <v>1062</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="18"/>
+      <c r="B8" s="21"/>
       <c r="C8" s="8">
         <v>2</v>
       </c>
@@ -2258,14 +2252,14 @@
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="E8" s="20"/>
+      <c r="E8" s="23"/>
       <c r="F8" s="14">
         <f t="shared" si="1"/>
         <v>2124</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="18"/>
+      <c r="B9" s="21"/>
       <c r="C9" s="8">
         <v>4</v>
       </c>
@@ -2273,14 +2267,14 @@
         <f t="shared" si="0"/>
         <v>250</v>
       </c>
-      <c r="E9" s="20"/>
+      <c r="E9" s="23"/>
       <c r="F9" s="14">
         <f t="shared" si="1"/>
         <v>4248</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="18"/>
+      <c r="B10" s="21"/>
       <c r="C10" s="8">
         <v>8</v>
       </c>
@@ -2288,14 +2282,14 @@
         <f t="shared" si="0"/>
         <v>125</v>
       </c>
-      <c r="E10" s="20"/>
+      <c r="E10" s="23"/>
       <c r="F10" s="14">
         <f t="shared" si="1"/>
         <v>8497</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="18"/>
+      <c r="B11" s="21"/>
       <c r="C11" s="8">
         <v>16</v>
       </c>
@@ -2303,14 +2297,14 @@
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="E11" s="20"/>
+      <c r="E11" s="23"/>
       <c r="F11" s="14">
         <f t="shared" si="1"/>
         <v>16993</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="18"/>
+      <c r="B12" s="21"/>
       <c r="C12" s="8">
         <v>32</v>
       </c>
@@ -2318,23 +2312,23 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="E12" s="20"/>
+      <c r="E12" s="23"/>
       <c r="F12" s="14">
         <f>ROUND((C12*1000000)/($E$4*$E$4),0)</f>
         <v>33987</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="19"/>
+      <c r="B13" s="22"/>
       <c r="C13" s="15">
         <v>64</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="15">
         <f>ROUND($B$4/C13,0)</f>
         <v>16</v>
       </c>
-      <c r="E13" s="21"/>
-      <c r="F13" s="17">
+      <c r="E13" s="24"/>
+      <c r="F13" s="16">
         <f>ROUND((C13*1000000)/($E$4*$E$4),0)</f>
         <v>67973</v>
       </c>
@@ -2345,7 +2339,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="hmlA/+FY+vDVW+TwZ3se/jR7ReELi5h8IgpSM2ddag2S+9spHexrwwaL6csqhgaS99Ty5RuYa0jMvzGOkqalVA==" saltValue="kmTZh7X3RoyvhdQIhh673w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="vaXRz2S3mZ4MrwqNGNqd83V3vZJHchvj48ASYygVjwbe30BQ4xHDlyZntducB9+4uuHklGENqdXNu2DD3oHzlg==" saltValue="skkbVyfoKgPhRAzTsXRE3w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="3">
     <mergeCell ref="B4:B13"/>
     <mergeCell ref="E4:E13"/>
@@ -2367,198 +2361,198 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="23" customWidth="1"/>
-    <col min="2" max="2" width="80.7109375" style="23" customWidth="1"/>
-    <col min="3" max="256" width="11.42578125" style="23"/>
-    <col min="257" max="257" width="2.7109375" style="23" customWidth="1"/>
-    <col min="258" max="258" width="63.42578125" style="23" customWidth="1"/>
-    <col min="259" max="512" width="11.42578125" style="23"/>
-    <col min="513" max="513" width="2.7109375" style="23" customWidth="1"/>
-    <col min="514" max="514" width="63.42578125" style="23" customWidth="1"/>
-    <col min="515" max="768" width="11.42578125" style="23"/>
-    <col min="769" max="769" width="2.7109375" style="23" customWidth="1"/>
-    <col min="770" max="770" width="63.42578125" style="23" customWidth="1"/>
-    <col min="771" max="1024" width="11.42578125" style="23"/>
-    <col min="1025" max="1025" width="2.7109375" style="23" customWidth="1"/>
-    <col min="1026" max="1026" width="63.42578125" style="23" customWidth="1"/>
-    <col min="1027" max="1280" width="11.42578125" style="23"/>
-    <col min="1281" max="1281" width="2.7109375" style="23" customWidth="1"/>
-    <col min="1282" max="1282" width="63.42578125" style="23" customWidth="1"/>
-    <col min="1283" max="1536" width="11.42578125" style="23"/>
-    <col min="1537" max="1537" width="2.7109375" style="23" customWidth="1"/>
-    <col min="1538" max="1538" width="63.42578125" style="23" customWidth="1"/>
-    <col min="1539" max="1792" width="11.42578125" style="23"/>
-    <col min="1793" max="1793" width="2.7109375" style="23" customWidth="1"/>
-    <col min="1794" max="1794" width="63.42578125" style="23" customWidth="1"/>
-    <col min="1795" max="2048" width="11.42578125" style="23"/>
-    <col min="2049" max="2049" width="2.7109375" style="23" customWidth="1"/>
-    <col min="2050" max="2050" width="63.42578125" style="23" customWidth="1"/>
-    <col min="2051" max="2304" width="11.42578125" style="23"/>
-    <col min="2305" max="2305" width="2.7109375" style="23" customWidth="1"/>
-    <col min="2306" max="2306" width="63.42578125" style="23" customWidth="1"/>
-    <col min="2307" max="2560" width="11.42578125" style="23"/>
-    <col min="2561" max="2561" width="2.7109375" style="23" customWidth="1"/>
-    <col min="2562" max="2562" width="63.42578125" style="23" customWidth="1"/>
-    <col min="2563" max="2816" width="11.42578125" style="23"/>
-    <col min="2817" max="2817" width="2.7109375" style="23" customWidth="1"/>
-    <col min="2818" max="2818" width="63.42578125" style="23" customWidth="1"/>
-    <col min="2819" max="3072" width="11.42578125" style="23"/>
-    <col min="3073" max="3073" width="2.7109375" style="23" customWidth="1"/>
-    <col min="3074" max="3074" width="63.42578125" style="23" customWidth="1"/>
-    <col min="3075" max="3328" width="11.42578125" style="23"/>
-    <col min="3329" max="3329" width="2.7109375" style="23" customWidth="1"/>
-    <col min="3330" max="3330" width="63.42578125" style="23" customWidth="1"/>
-    <col min="3331" max="3584" width="11.42578125" style="23"/>
-    <col min="3585" max="3585" width="2.7109375" style="23" customWidth="1"/>
-    <col min="3586" max="3586" width="63.42578125" style="23" customWidth="1"/>
-    <col min="3587" max="3840" width="11.42578125" style="23"/>
-    <col min="3841" max="3841" width="2.7109375" style="23" customWidth="1"/>
-    <col min="3842" max="3842" width="63.42578125" style="23" customWidth="1"/>
-    <col min="3843" max="4096" width="11.42578125" style="23"/>
-    <col min="4097" max="4097" width="2.7109375" style="23" customWidth="1"/>
-    <col min="4098" max="4098" width="63.42578125" style="23" customWidth="1"/>
-    <col min="4099" max="4352" width="11.42578125" style="23"/>
-    <col min="4353" max="4353" width="2.7109375" style="23" customWidth="1"/>
-    <col min="4354" max="4354" width="63.42578125" style="23" customWidth="1"/>
-    <col min="4355" max="4608" width="11.42578125" style="23"/>
-    <col min="4609" max="4609" width="2.7109375" style="23" customWidth="1"/>
-    <col min="4610" max="4610" width="63.42578125" style="23" customWidth="1"/>
-    <col min="4611" max="4864" width="11.42578125" style="23"/>
-    <col min="4865" max="4865" width="2.7109375" style="23" customWidth="1"/>
-    <col min="4866" max="4866" width="63.42578125" style="23" customWidth="1"/>
-    <col min="4867" max="5120" width="11.42578125" style="23"/>
-    <col min="5121" max="5121" width="2.7109375" style="23" customWidth="1"/>
-    <col min="5122" max="5122" width="63.42578125" style="23" customWidth="1"/>
-    <col min="5123" max="5376" width="11.42578125" style="23"/>
-    <col min="5377" max="5377" width="2.7109375" style="23" customWidth="1"/>
-    <col min="5378" max="5378" width="63.42578125" style="23" customWidth="1"/>
-    <col min="5379" max="5632" width="11.42578125" style="23"/>
-    <col min="5633" max="5633" width="2.7109375" style="23" customWidth="1"/>
-    <col min="5634" max="5634" width="63.42578125" style="23" customWidth="1"/>
-    <col min="5635" max="5888" width="11.42578125" style="23"/>
-    <col min="5889" max="5889" width="2.7109375" style="23" customWidth="1"/>
-    <col min="5890" max="5890" width="63.42578125" style="23" customWidth="1"/>
-    <col min="5891" max="6144" width="11.42578125" style="23"/>
-    <col min="6145" max="6145" width="2.7109375" style="23" customWidth="1"/>
-    <col min="6146" max="6146" width="63.42578125" style="23" customWidth="1"/>
-    <col min="6147" max="6400" width="11.42578125" style="23"/>
-    <col min="6401" max="6401" width="2.7109375" style="23" customWidth="1"/>
-    <col min="6402" max="6402" width="63.42578125" style="23" customWidth="1"/>
-    <col min="6403" max="6656" width="11.42578125" style="23"/>
-    <col min="6657" max="6657" width="2.7109375" style="23" customWidth="1"/>
-    <col min="6658" max="6658" width="63.42578125" style="23" customWidth="1"/>
-    <col min="6659" max="6912" width="11.42578125" style="23"/>
-    <col min="6913" max="6913" width="2.7109375" style="23" customWidth="1"/>
-    <col min="6914" max="6914" width="63.42578125" style="23" customWidth="1"/>
-    <col min="6915" max="7168" width="11.42578125" style="23"/>
-    <col min="7169" max="7169" width="2.7109375" style="23" customWidth="1"/>
-    <col min="7170" max="7170" width="63.42578125" style="23" customWidth="1"/>
-    <col min="7171" max="7424" width="11.42578125" style="23"/>
-    <col min="7425" max="7425" width="2.7109375" style="23" customWidth="1"/>
-    <col min="7426" max="7426" width="63.42578125" style="23" customWidth="1"/>
-    <col min="7427" max="7680" width="11.42578125" style="23"/>
-    <col min="7681" max="7681" width="2.7109375" style="23" customWidth="1"/>
-    <col min="7682" max="7682" width="63.42578125" style="23" customWidth="1"/>
-    <col min="7683" max="7936" width="11.42578125" style="23"/>
-    <col min="7937" max="7937" width="2.7109375" style="23" customWidth="1"/>
-    <col min="7938" max="7938" width="63.42578125" style="23" customWidth="1"/>
-    <col min="7939" max="8192" width="11.42578125" style="23"/>
-    <col min="8193" max="8193" width="2.7109375" style="23" customWidth="1"/>
-    <col min="8194" max="8194" width="63.42578125" style="23" customWidth="1"/>
-    <col min="8195" max="8448" width="11.42578125" style="23"/>
-    <col min="8449" max="8449" width="2.7109375" style="23" customWidth="1"/>
-    <col min="8450" max="8450" width="63.42578125" style="23" customWidth="1"/>
-    <col min="8451" max="8704" width="11.42578125" style="23"/>
-    <col min="8705" max="8705" width="2.7109375" style="23" customWidth="1"/>
-    <col min="8706" max="8706" width="63.42578125" style="23" customWidth="1"/>
-    <col min="8707" max="8960" width="11.42578125" style="23"/>
-    <col min="8961" max="8961" width="2.7109375" style="23" customWidth="1"/>
-    <col min="8962" max="8962" width="63.42578125" style="23" customWidth="1"/>
-    <col min="8963" max="9216" width="11.42578125" style="23"/>
-    <col min="9217" max="9217" width="2.7109375" style="23" customWidth="1"/>
-    <col min="9218" max="9218" width="63.42578125" style="23" customWidth="1"/>
-    <col min="9219" max="9472" width="11.42578125" style="23"/>
-    <col min="9473" max="9473" width="2.7109375" style="23" customWidth="1"/>
-    <col min="9474" max="9474" width="63.42578125" style="23" customWidth="1"/>
-    <col min="9475" max="9728" width="11.42578125" style="23"/>
-    <col min="9729" max="9729" width="2.7109375" style="23" customWidth="1"/>
-    <col min="9730" max="9730" width="63.42578125" style="23" customWidth="1"/>
-    <col min="9731" max="9984" width="11.42578125" style="23"/>
-    <col min="9985" max="9985" width="2.7109375" style="23" customWidth="1"/>
-    <col min="9986" max="9986" width="63.42578125" style="23" customWidth="1"/>
-    <col min="9987" max="10240" width="11.42578125" style="23"/>
-    <col min="10241" max="10241" width="2.7109375" style="23" customWidth="1"/>
-    <col min="10242" max="10242" width="63.42578125" style="23" customWidth="1"/>
-    <col min="10243" max="10496" width="11.42578125" style="23"/>
-    <col min="10497" max="10497" width="2.7109375" style="23" customWidth="1"/>
-    <col min="10498" max="10498" width="63.42578125" style="23" customWidth="1"/>
-    <col min="10499" max="10752" width="11.42578125" style="23"/>
-    <col min="10753" max="10753" width="2.7109375" style="23" customWidth="1"/>
-    <col min="10754" max="10754" width="63.42578125" style="23" customWidth="1"/>
-    <col min="10755" max="11008" width="11.42578125" style="23"/>
-    <col min="11009" max="11009" width="2.7109375" style="23" customWidth="1"/>
-    <col min="11010" max="11010" width="63.42578125" style="23" customWidth="1"/>
-    <col min="11011" max="11264" width="11.42578125" style="23"/>
-    <col min="11265" max="11265" width="2.7109375" style="23" customWidth="1"/>
-    <col min="11266" max="11266" width="63.42578125" style="23" customWidth="1"/>
-    <col min="11267" max="11520" width="11.42578125" style="23"/>
-    <col min="11521" max="11521" width="2.7109375" style="23" customWidth="1"/>
-    <col min="11522" max="11522" width="63.42578125" style="23" customWidth="1"/>
-    <col min="11523" max="11776" width="11.42578125" style="23"/>
-    <col min="11777" max="11777" width="2.7109375" style="23" customWidth="1"/>
-    <col min="11778" max="11778" width="63.42578125" style="23" customWidth="1"/>
-    <col min="11779" max="12032" width="11.42578125" style="23"/>
-    <col min="12033" max="12033" width="2.7109375" style="23" customWidth="1"/>
-    <col min="12034" max="12034" width="63.42578125" style="23" customWidth="1"/>
-    <col min="12035" max="12288" width="11.42578125" style="23"/>
-    <col min="12289" max="12289" width="2.7109375" style="23" customWidth="1"/>
-    <col min="12290" max="12290" width="63.42578125" style="23" customWidth="1"/>
-    <col min="12291" max="12544" width="11.42578125" style="23"/>
-    <col min="12545" max="12545" width="2.7109375" style="23" customWidth="1"/>
-    <col min="12546" max="12546" width="63.42578125" style="23" customWidth="1"/>
-    <col min="12547" max="12800" width="11.42578125" style="23"/>
-    <col min="12801" max="12801" width="2.7109375" style="23" customWidth="1"/>
-    <col min="12802" max="12802" width="63.42578125" style="23" customWidth="1"/>
-    <col min="12803" max="13056" width="11.42578125" style="23"/>
-    <col min="13057" max="13057" width="2.7109375" style="23" customWidth="1"/>
-    <col min="13058" max="13058" width="63.42578125" style="23" customWidth="1"/>
-    <col min="13059" max="13312" width="11.42578125" style="23"/>
-    <col min="13313" max="13313" width="2.7109375" style="23" customWidth="1"/>
-    <col min="13314" max="13314" width="63.42578125" style="23" customWidth="1"/>
-    <col min="13315" max="13568" width="11.42578125" style="23"/>
-    <col min="13569" max="13569" width="2.7109375" style="23" customWidth="1"/>
-    <col min="13570" max="13570" width="63.42578125" style="23" customWidth="1"/>
-    <col min="13571" max="13824" width="11.42578125" style="23"/>
-    <col min="13825" max="13825" width="2.7109375" style="23" customWidth="1"/>
-    <col min="13826" max="13826" width="63.42578125" style="23" customWidth="1"/>
-    <col min="13827" max="14080" width="11.42578125" style="23"/>
-    <col min="14081" max="14081" width="2.7109375" style="23" customWidth="1"/>
-    <col min="14082" max="14082" width="63.42578125" style="23" customWidth="1"/>
-    <col min="14083" max="14336" width="11.42578125" style="23"/>
-    <col min="14337" max="14337" width="2.7109375" style="23" customWidth="1"/>
-    <col min="14338" max="14338" width="63.42578125" style="23" customWidth="1"/>
-    <col min="14339" max="14592" width="11.42578125" style="23"/>
-    <col min="14593" max="14593" width="2.7109375" style="23" customWidth="1"/>
-    <col min="14594" max="14594" width="63.42578125" style="23" customWidth="1"/>
-    <col min="14595" max="14848" width="11.42578125" style="23"/>
-    <col min="14849" max="14849" width="2.7109375" style="23" customWidth="1"/>
-    <col min="14850" max="14850" width="63.42578125" style="23" customWidth="1"/>
-    <col min="14851" max="15104" width="11.42578125" style="23"/>
-    <col min="15105" max="15105" width="2.7109375" style="23" customWidth="1"/>
-    <col min="15106" max="15106" width="63.42578125" style="23" customWidth="1"/>
-    <col min="15107" max="15360" width="11.42578125" style="23"/>
-    <col min="15361" max="15361" width="2.7109375" style="23" customWidth="1"/>
-    <col min="15362" max="15362" width="63.42578125" style="23" customWidth="1"/>
-    <col min="15363" max="15616" width="11.42578125" style="23"/>
-    <col min="15617" max="15617" width="2.7109375" style="23" customWidth="1"/>
-    <col min="15618" max="15618" width="63.42578125" style="23" customWidth="1"/>
-    <col min="15619" max="15872" width="11.42578125" style="23"/>
-    <col min="15873" max="15873" width="2.7109375" style="23" customWidth="1"/>
-    <col min="15874" max="15874" width="63.42578125" style="23" customWidth="1"/>
-    <col min="15875" max="16128" width="11.42578125" style="23"/>
-    <col min="16129" max="16129" width="2.7109375" style="23" customWidth="1"/>
-    <col min="16130" max="16130" width="63.42578125" style="23" customWidth="1"/>
-    <col min="16131" max="16384" width="11.42578125" style="23"/>
+    <col min="1" max="1" width="2.7109375" style="17" customWidth="1"/>
+    <col min="2" max="2" width="80.7109375" style="17" customWidth="1"/>
+    <col min="3" max="256" width="11.42578125" style="17"/>
+    <col min="257" max="257" width="2.7109375" style="17" customWidth="1"/>
+    <col min="258" max="258" width="63.42578125" style="17" customWidth="1"/>
+    <col min="259" max="512" width="11.42578125" style="17"/>
+    <col min="513" max="513" width="2.7109375" style="17" customWidth="1"/>
+    <col min="514" max="514" width="63.42578125" style="17" customWidth="1"/>
+    <col min="515" max="768" width="11.42578125" style="17"/>
+    <col min="769" max="769" width="2.7109375" style="17" customWidth="1"/>
+    <col min="770" max="770" width="63.42578125" style="17" customWidth="1"/>
+    <col min="771" max="1024" width="11.42578125" style="17"/>
+    <col min="1025" max="1025" width="2.7109375" style="17" customWidth="1"/>
+    <col min="1026" max="1026" width="63.42578125" style="17" customWidth="1"/>
+    <col min="1027" max="1280" width="11.42578125" style="17"/>
+    <col min="1281" max="1281" width="2.7109375" style="17" customWidth="1"/>
+    <col min="1282" max="1282" width="63.42578125" style="17" customWidth="1"/>
+    <col min="1283" max="1536" width="11.42578125" style="17"/>
+    <col min="1537" max="1537" width="2.7109375" style="17" customWidth="1"/>
+    <col min="1538" max="1538" width="63.42578125" style="17" customWidth="1"/>
+    <col min="1539" max="1792" width="11.42578125" style="17"/>
+    <col min="1793" max="1793" width="2.7109375" style="17" customWidth="1"/>
+    <col min="1794" max="1794" width="63.42578125" style="17" customWidth="1"/>
+    <col min="1795" max="2048" width="11.42578125" style="17"/>
+    <col min="2049" max="2049" width="2.7109375" style="17" customWidth="1"/>
+    <col min="2050" max="2050" width="63.42578125" style="17" customWidth="1"/>
+    <col min="2051" max="2304" width="11.42578125" style="17"/>
+    <col min="2305" max="2305" width="2.7109375" style="17" customWidth="1"/>
+    <col min="2306" max="2306" width="63.42578125" style="17" customWidth="1"/>
+    <col min="2307" max="2560" width="11.42578125" style="17"/>
+    <col min="2561" max="2561" width="2.7109375" style="17" customWidth="1"/>
+    <col min="2562" max="2562" width="63.42578125" style="17" customWidth="1"/>
+    <col min="2563" max="2816" width="11.42578125" style="17"/>
+    <col min="2817" max="2817" width="2.7109375" style="17" customWidth="1"/>
+    <col min="2818" max="2818" width="63.42578125" style="17" customWidth="1"/>
+    <col min="2819" max="3072" width="11.42578125" style="17"/>
+    <col min="3073" max="3073" width="2.7109375" style="17" customWidth="1"/>
+    <col min="3074" max="3074" width="63.42578125" style="17" customWidth="1"/>
+    <col min="3075" max="3328" width="11.42578125" style="17"/>
+    <col min="3329" max="3329" width="2.7109375" style="17" customWidth="1"/>
+    <col min="3330" max="3330" width="63.42578125" style="17" customWidth="1"/>
+    <col min="3331" max="3584" width="11.42578125" style="17"/>
+    <col min="3585" max="3585" width="2.7109375" style="17" customWidth="1"/>
+    <col min="3586" max="3586" width="63.42578125" style="17" customWidth="1"/>
+    <col min="3587" max="3840" width="11.42578125" style="17"/>
+    <col min="3841" max="3841" width="2.7109375" style="17" customWidth="1"/>
+    <col min="3842" max="3842" width="63.42578125" style="17" customWidth="1"/>
+    <col min="3843" max="4096" width="11.42578125" style="17"/>
+    <col min="4097" max="4097" width="2.7109375" style="17" customWidth="1"/>
+    <col min="4098" max="4098" width="63.42578125" style="17" customWidth="1"/>
+    <col min="4099" max="4352" width="11.42578125" style="17"/>
+    <col min="4353" max="4353" width="2.7109375" style="17" customWidth="1"/>
+    <col min="4354" max="4354" width="63.42578125" style="17" customWidth="1"/>
+    <col min="4355" max="4608" width="11.42578125" style="17"/>
+    <col min="4609" max="4609" width="2.7109375" style="17" customWidth="1"/>
+    <col min="4610" max="4610" width="63.42578125" style="17" customWidth="1"/>
+    <col min="4611" max="4864" width="11.42578125" style="17"/>
+    <col min="4865" max="4865" width="2.7109375" style="17" customWidth="1"/>
+    <col min="4866" max="4866" width="63.42578125" style="17" customWidth="1"/>
+    <col min="4867" max="5120" width="11.42578125" style="17"/>
+    <col min="5121" max="5121" width="2.7109375" style="17" customWidth="1"/>
+    <col min="5122" max="5122" width="63.42578125" style="17" customWidth="1"/>
+    <col min="5123" max="5376" width="11.42578125" style="17"/>
+    <col min="5377" max="5377" width="2.7109375" style="17" customWidth="1"/>
+    <col min="5378" max="5378" width="63.42578125" style="17" customWidth="1"/>
+    <col min="5379" max="5632" width="11.42578125" style="17"/>
+    <col min="5633" max="5633" width="2.7109375" style="17" customWidth="1"/>
+    <col min="5634" max="5634" width="63.42578125" style="17" customWidth="1"/>
+    <col min="5635" max="5888" width="11.42578125" style="17"/>
+    <col min="5889" max="5889" width="2.7109375" style="17" customWidth="1"/>
+    <col min="5890" max="5890" width="63.42578125" style="17" customWidth="1"/>
+    <col min="5891" max="6144" width="11.42578125" style="17"/>
+    <col min="6145" max="6145" width="2.7109375" style="17" customWidth="1"/>
+    <col min="6146" max="6146" width="63.42578125" style="17" customWidth="1"/>
+    <col min="6147" max="6400" width="11.42578125" style="17"/>
+    <col min="6401" max="6401" width="2.7109375" style="17" customWidth="1"/>
+    <col min="6402" max="6402" width="63.42578125" style="17" customWidth="1"/>
+    <col min="6403" max="6656" width="11.42578125" style="17"/>
+    <col min="6657" max="6657" width="2.7109375" style="17" customWidth="1"/>
+    <col min="6658" max="6658" width="63.42578125" style="17" customWidth="1"/>
+    <col min="6659" max="6912" width="11.42578125" style="17"/>
+    <col min="6913" max="6913" width="2.7109375" style="17" customWidth="1"/>
+    <col min="6914" max="6914" width="63.42578125" style="17" customWidth="1"/>
+    <col min="6915" max="7168" width="11.42578125" style="17"/>
+    <col min="7169" max="7169" width="2.7109375" style="17" customWidth="1"/>
+    <col min="7170" max="7170" width="63.42578125" style="17" customWidth="1"/>
+    <col min="7171" max="7424" width="11.42578125" style="17"/>
+    <col min="7425" max="7425" width="2.7109375" style="17" customWidth="1"/>
+    <col min="7426" max="7426" width="63.42578125" style="17" customWidth="1"/>
+    <col min="7427" max="7680" width="11.42578125" style="17"/>
+    <col min="7681" max="7681" width="2.7109375" style="17" customWidth="1"/>
+    <col min="7682" max="7682" width="63.42578125" style="17" customWidth="1"/>
+    <col min="7683" max="7936" width="11.42578125" style="17"/>
+    <col min="7937" max="7937" width="2.7109375" style="17" customWidth="1"/>
+    <col min="7938" max="7938" width="63.42578125" style="17" customWidth="1"/>
+    <col min="7939" max="8192" width="11.42578125" style="17"/>
+    <col min="8193" max="8193" width="2.7109375" style="17" customWidth="1"/>
+    <col min="8194" max="8194" width="63.42578125" style="17" customWidth="1"/>
+    <col min="8195" max="8448" width="11.42578125" style="17"/>
+    <col min="8449" max="8449" width="2.7109375" style="17" customWidth="1"/>
+    <col min="8450" max="8450" width="63.42578125" style="17" customWidth="1"/>
+    <col min="8451" max="8704" width="11.42578125" style="17"/>
+    <col min="8705" max="8705" width="2.7109375" style="17" customWidth="1"/>
+    <col min="8706" max="8706" width="63.42578125" style="17" customWidth="1"/>
+    <col min="8707" max="8960" width="11.42578125" style="17"/>
+    <col min="8961" max="8961" width="2.7109375" style="17" customWidth="1"/>
+    <col min="8962" max="8962" width="63.42578125" style="17" customWidth="1"/>
+    <col min="8963" max="9216" width="11.42578125" style="17"/>
+    <col min="9217" max="9217" width="2.7109375" style="17" customWidth="1"/>
+    <col min="9218" max="9218" width="63.42578125" style="17" customWidth="1"/>
+    <col min="9219" max="9472" width="11.42578125" style="17"/>
+    <col min="9473" max="9473" width="2.7109375" style="17" customWidth="1"/>
+    <col min="9474" max="9474" width="63.42578125" style="17" customWidth="1"/>
+    <col min="9475" max="9728" width="11.42578125" style="17"/>
+    <col min="9729" max="9729" width="2.7109375" style="17" customWidth="1"/>
+    <col min="9730" max="9730" width="63.42578125" style="17" customWidth="1"/>
+    <col min="9731" max="9984" width="11.42578125" style="17"/>
+    <col min="9985" max="9985" width="2.7109375" style="17" customWidth="1"/>
+    <col min="9986" max="9986" width="63.42578125" style="17" customWidth="1"/>
+    <col min="9987" max="10240" width="11.42578125" style="17"/>
+    <col min="10241" max="10241" width="2.7109375" style="17" customWidth="1"/>
+    <col min="10242" max="10242" width="63.42578125" style="17" customWidth="1"/>
+    <col min="10243" max="10496" width="11.42578125" style="17"/>
+    <col min="10497" max="10497" width="2.7109375" style="17" customWidth="1"/>
+    <col min="10498" max="10498" width="63.42578125" style="17" customWidth="1"/>
+    <col min="10499" max="10752" width="11.42578125" style="17"/>
+    <col min="10753" max="10753" width="2.7109375" style="17" customWidth="1"/>
+    <col min="10754" max="10754" width="63.42578125" style="17" customWidth="1"/>
+    <col min="10755" max="11008" width="11.42578125" style="17"/>
+    <col min="11009" max="11009" width="2.7109375" style="17" customWidth="1"/>
+    <col min="11010" max="11010" width="63.42578125" style="17" customWidth="1"/>
+    <col min="11011" max="11264" width="11.42578125" style="17"/>
+    <col min="11265" max="11265" width="2.7109375" style="17" customWidth="1"/>
+    <col min="11266" max="11266" width="63.42578125" style="17" customWidth="1"/>
+    <col min="11267" max="11520" width="11.42578125" style="17"/>
+    <col min="11521" max="11521" width="2.7109375" style="17" customWidth="1"/>
+    <col min="11522" max="11522" width="63.42578125" style="17" customWidth="1"/>
+    <col min="11523" max="11776" width="11.42578125" style="17"/>
+    <col min="11777" max="11777" width="2.7109375" style="17" customWidth="1"/>
+    <col min="11778" max="11778" width="63.42578125" style="17" customWidth="1"/>
+    <col min="11779" max="12032" width="11.42578125" style="17"/>
+    <col min="12033" max="12033" width="2.7109375" style="17" customWidth="1"/>
+    <col min="12034" max="12034" width="63.42578125" style="17" customWidth="1"/>
+    <col min="12035" max="12288" width="11.42578125" style="17"/>
+    <col min="12289" max="12289" width="2.7109375" style="17" customWidth="1"/>
+    <col min="12290" max="12290" width="63.42578125" style="17" customWidth="1"/>
+    <col min="12291" max="12544" width="11.42578125" style="17"/>
+    <col min="12545" max="12545" width="2.7109375" style="17" customWidth="1"/>
+    <col min="12546" max="12546" width="63.42578125" style="17" customWidth="1"/>
+    <col min="12547" max="12800" width="11.42578125" style="17"/>
+    <col min="12801" max="12801" width="2.7109375" style="17" customWidth="1"/>
+    <col min="12802" max="12802" width="63.42578125" style="17" customWidth="1"/>
+    <col min="12803" max="13056" width="11.42578125" style="17"/>
+    <col min="13057" max="13057" width="2.7109375" style="17" customWidth="1"/>
+    <col min="13058" max="13058" width="63.42578125" style="17" customWidth="1"/>
+    <col min="13059" max="13312" width="11.42578125" style="17"/>
+    <col min="13313" max="13313" width="2.7109375" style="17" customWidth="1"/>
+    <col min="13314" max="13314" width="63.42578125" style="17" customWidth="1"/>
+    <col min="13315" max="13568" width="11.42578125" style="17"/>
+    <col min="13569" max="13569" width="2.7109375" style="17" customWidth="1"/>
+    <col min="13570" max="13570" width="63.42578125" style="17" customWidth="1"/>
+    <col min="13571" max="13824" width="11.42578125" style="17"/>
+    <col min="13825" max="13825" width="2.7109375" style="17" customWidth="1"/>
+    <col min="13826" max="13826" width="63.42578125" style="17" customWidth="1"/>
+    <col min="13827" max="14080" width="11.42578125" style="17"/>
+    <col min="14081" max="14081" width="2.7109375" style="17" customWidth="1"/>
+    <col min="14082" max="14082" width="63.42578125" style="17" customWidth="1"/>
+    <col min="14083" max="14336" width="11.42578125" style="17"/>
+    <col min="14337" max="14337" width="2.7109375" style="17" customWidth="1"/>
+    <col min="14338" max="14338" width="63.42578125" style="17" customWidth="1"/>
+    <col min="14339" max="14592" width="11.42578125" style="17"/>
+    <col min="14593" max="14593" width="2.7109375" style="17" customWidth="1"/>
+    <col min="14594" max="14594" width="63.42578125" style="17" customWidth="1"/>
+    <col min="14595" max="14848" width="11.42578125" style="17"/>
+    <col min="14849" max="14849" width="2.7109375" style="17" customWidth="1"/>
+    <col min="14850" max="14850" width="63.42578125" style="17" customWidth="1"/>
+    <col min="14851" max="15104" width="11.42578125" style="17"/>
+    <col min="15105" max="15105" width="2.7109375" style="17" customWidth="1"/>
+    <col min="15106" max="15106" width="63.42578125" style="17" customWidth="1"/>
+    <col min="15107" max="15360" width="11.42578125" style="17"/>
+    <col min="15361" max="15361" width="2.7109375" style="17" customWidth="1"/>
+    <col min="15362" max="15362" width="63.42578125" style="17" customWidth="1"/>
+    <col min="15363" max="15616" width="11.42578125" style="17"/>
+    <col min="15617" max="15617" width="2.7109375" style="17" customWidth="1"/>
+    <col min="15618" max="15618" width="63.42578125" style="17" customWidth="1"/>
+    <col min="15619" max="15872" width="11.42578125" style="17"/>
+    <col min="15873" max="15873" width="2.7109375" style="17" customWidth="1"/>
+    <col min="15874" max="15874" width="63.42578125" style="17" customWidth="1"/>
+    <col min="15875" max="16128" width="11.42578125" style="17"/>
+    <col min="16129" max="16129" width="2.7109375" style="17" customWidth="1"/>
+    <col min="16130" max="16130" width="63.42578125" style="17" customWidth="1"/>
+    <col min="16131" max="16384" width="11.42578125" style="17"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
@@ -2572,7 +2566,7 @@
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="18" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2582,12 +2576,12 @@
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="18" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="19" t="s">
         <v>4</v>
       </c>
     </row>
